--- a/FaceEmails.xlsx
+++ b/FaceEmails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="184">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -31,322 +31,541 @@
     <t>Names</t>
   </si>
   <si>
+    <t>gav</t>
+  </si>
+  <si>
     <t>gmail</t>
   </si>
   <si>
+    <t>vatbox</t>
+  </si>
+  <si>
+    <t>prodware</t>
+  </si>
+  <si>
+    <t>herolo</t>
+  </si>
+  <si>
+    <t>ellers</t>
+  </si>
+  <si>
+    <t>ricult</t>
+  </si>
+  <si>
+    <t>onlineshmonline</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>tefen</t>
+  </si>
+  <si>
+    <t>skyboxsecurity</t>
+  </si>
+  <si>
+    <t>ibi</t>
+  </si>
+  <si>
+    <t>liacom</t>
+  </si>
+  <si>
+    <t>optimalplus</t>
+  </si>
+  <si>
+    <t>top-soft</t>
+  </si>
+  <si>
+    <t>medulla</t>
+  </si>
+  <si>
+    <t>ardom</t>
+  </si>
+  <si>
+    <t>go-up</t>
+  </si>
+  <si>
+    <t>tcmcareer</t>
+  </si>
+  <si>
+    <t>horizontech</t>
+  </si>
+  <si>
+    <t>razel</t>
+  </si>
+  <si>
+    <t>regus</t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>wojo</t>
+  </si>
+  <si>
+    <t>startica</t>
+  </si>
+  <si>
+    <t>spinomenal</t>
+  </si>
+  <si>
     <t>elad-health</t>
   </si>
   <si>
-    <t>prodware</t>
-  </si>
-  <si>
-    <t>diskal</t>
-  </si>
-  <si>
-    <t>doubleverify</t>
-  </si>
-  <si>
-    <t>in-touch</t>
-  </si>
-  <si>
-    <t>tcmcareer</t>
-  </si>
-  <si>
-    <t>projects</t>
-  </si>
-  <si>
-    <t>apal</t>
-  </si>
-  <si>
-    <t>moonactive</t>
-  </si>
-  <si>
-    <t>ellers</t>
-  </si>
-  <si>
-    <t>startica</t>
-  </si>
-  <si>
     <t>nogamy</t>
   </si>
   <si>
-    <t>logica-it</t>
-  </si>
-  <si>
-    <t>gav</t>
-  </si>
-  <si>
-    <t>bizibox</t>
+    <t>comc</t>
+  </si>
+  <si>
+    <t>soluto</t>
+  </si>
+  <si>
+    <t>loco-tech</t>
+  </si>
+  <si>
+    <t>barak-capital</t>
+  </si>
+  <si>
+    <t>greenberg</t>
+  </si>
+  <si>
+    <t>wintech</t>
   </si>
   <si>
     <t>sunrise</t>
   </si>
   <si>
-    <t>cvwebmail</t>
-  </si>
-  <si>
-    <t>saritkrul</t>
-  </si>
-  <si>
-    <t>nanna</t>
-  </si>
-  <si>
-    <t>yaelgroup</t>
-  </si>
-  <si>
-    <t>bynetsoft</t>
-  </si>
-  <si>
-    <t>degel</t>
+    <t>tiecom</t>
+  </si>
+  <si>
+    <t>pelephone</t>
+  </si>
+  <si>
+    <t>Amdocs</t>
+  </si>
+  <si>
+    <t>kiberneti</t>
+  </si>
+  <si>
+    <t>medisim</t>
   </si>
   <si>
     <t>clalit</t>
   </si>
   <si>
-    <t>['themarkrus@gmail.com']</t>
-  </si>
-  <si>
-    <t>['soofa.shaaya@elad-health.com']</t>
-  </si>
-  <si>
-    <t>['nsh531@gmail.com']</t>
-  </si>
-  <si>
-    <t>['rhalifa@prodware.co.il']</t>
-  </si>
-  <si>
-    <t>['3094944@gmail.com']</t>
-  </si>
-  <si>
-    <t>['gilat@diskal.co.il']</t>
-  </si>
-  <si>
-    <t>['efraaat1@gmail.com']</t>
-  </si>
-  <si>
-    <t>['sagiv.eliyahu@doubleverify.com']</t>
-  </si>
-  <si>
-    <t>['Job@in-touch.co.il']</t>
-  </si>
-  <si>
-    <t>['-lilahb@tcmcareer.com']</t>
-  </si>
-  <si>
-    <t>['re.buffalo770@gmail.com']</t>
-  </si>
-  <si>
-    <t>['liorworks4you@gmail.com']</t>
-  </si>
-  <si>
-    <t>['asaf.zilberberg@gmail.com']</t>
-  </si>
-  <si>
-    <t>['ravit@projects.org.il']</t>
-  </si>
-  <si>
-    <t>['cv@apal.co.il']</t>
-  </si>
-  <si>
-    <t>['tsahi.fr@moonactive.com']</t>
-  </si>
-  <si>
-    <t>['jerrycalebjasper@gmail.com']</t>
-  </si>
-  <si>
-    <t>['daniel.leicht@gmail.com']</t>
-  </si>
-  <si>
-    <t>['tamir@ellers.co.il']</t>
-  </si>
-  <si>
-    <t>['noa@startica.co.il']</t>
-  </si>
-  <si>
-    <t>['michael.dvinov@gmail.com']</t>
-  </si>
-  <si>
-    <t>['hadas.shor@nogamy.com']</t>
-  </si>
-  <si>
-    <t>['talya1@logica-it.co.il']</t>
-  </si>
-  <si>
-    <t>['cheliJo173@gmail.com']</t>
-  </si>
-  <si>
-    <t>['alonah@gav.co.il']</t>
-  </si>
-  <si>
-    <t>['tamar@bizibox.biz']</t>
-  </si>
-  <si>
-    <t>['michal@startica.co.il']</t>
-  </si>
-  <si>
-    <t>['hilapoch1988@gmail.com']</t>
-  </si>
-  <si>
-    <t>['rothschild.amit@gmail.com']</t>
-  </si>
-  <si>
-    <t>['adi@sunrise.co.il']</t>
-  </si>
-  <si>
-    <t>['yanivgerberg@gmail.com']</t>
-  </si>
-  <si>
-    <t>['inspireit@cvwebmail.com']</t>
-  </si>
-  <si>
-    <t>['office@saritkrul.co.il']</t>
-  </si>
-  <si>
-    <t>['Alon@nanna.ai']</t>
-  </si>
-  <si>
-    <t>['sales.zivbracha@gmail.com']</t>
-  </si>
-  <si>
-    <t>['melissaf@yaelgroup.com']</t>
-  </si>
-  <si>
-    <t>['sigalo@bynetsoft.co.il']</t>
-  </si>
-  <si>
-    <t>['Taxrefund10@gmail.com']</t>
-  </si>
-  <si>
-    <t>['Tamir@ellers.co.il']</t>
-  </si>
-  <si>
-    <t>['Batel@degel.us']</t>
-  </si>
-  <si>
-    <t>['nofaryeh@clalit.org.il']</t>
-  </si>
-  <si>
-    <t>['themarkrus</t>
-  </si>
-  <si>
-    <t>['soofa shaaya</t>
-  </si>
-  <si>
-    <t>['nsh531</t>
-  </si>
-  <si>
-    <t>['rhalifa</t>
-  </si>
-  <si>
-    <t>['3094944</t>
-  </si>
-  <si>
-    <t>['gilat</t>
-  </si>
-  <si>
-    <t>['efraaat1</t>
-  </si>
-  <si>
-    <t>['sagiv eliyahu</t>
-  </si>
-  <si>
-    <t>['Job</t>
-  </si>
-  <si>
-    <t>['-lilahb</t>
-  </si>
-  <si>
-    <t>['re buffalo770</t>
-  </si>
-  <si>
-    <t>['liorworks4you</t>
-  </si>
-  <si>
-    <t>['asaf zilberberg</t>
-  </si>
-  <si>
-    <t>['ravit</t>
-  </si>
-  <si>
-    <t>['cv</t>
-  </si>
-  <si>
-    <t>['tsahi fr</t>
-  </si>
-  <si>
-    <t>['jerrycalebjasper</t>
-  </si>
-  <si>
-    <t>['daniel leicht</t>
-  </si>
-  <si>
-    <t>['tamir</t>
-  </si>
-  <si>
-    <t>['noa</t>
-  </si>
-  <si>
-    <t>['michael dvinov</t>
-  </si>
-  <si>
-    <t>['hadas shor</t>
-  </si>
-  <si>
-    <t>['talya1</t>
-  </si>
-  <si>
-    <t>['cheliJo173</t>
-  </si>
-  <si>
-    <t>['alonah</t>
-  </si>
-  <si>
-    <t>['tamar</t>
-  </si>
-  <si>
-    <t>['michal</t>
-  </si>
-  <si>
-    <t>['hilapoch1988</t>
-  </si>
-  <si>
-    <t>['rothschild amit</t>
-  </si>
-  <si>
-    <t>['adi</t>
-  </si>
-  <si>
-    <t>['yanivgerberg</t>
-  </si>
-  <si>
-    <t>['inspireit</t>
-  </si>
-  <si>
-    <t>['office</t>
-  </si>
-  <si>
-    <t>['Alon</t>
-  </si>
-  <si>
-    <t>['sales zivbracha</t>
-  </si>
-  <si>
-    <t>['melissaf</t>
-  </si>
-  <si>
-    <t>['sigalo</t>
-  </si>
-  <si>
-    <t>['Taxrefund10</t>
-  </si>
-  <si>
-    <t>['Tamir</t>
-  </si>
-  <si>
-    <t>['Batel</t>
-  </si>
-  <si>
-    <t>['nofaryeh</t>
+    <t>playstudios-il</t>
+  </si>
+  <si>
+    <t>convizit</t>
+  </si>
+  <si>
+    <t>manpower</t>
+  </si>
+  <si>
+    <t>lenas@gav.co.il</t>
+  </si>
+  <si>
+    <t>shohamshahar@gmail.com</t>
+  </si>
+  <si>
+    <t>cieloschoolil@gmail.com</t>
+  </si>
+  <si>
+    <t>shirley.shaked@vatbox.com</t>
+  </si>
+  <si>
+    <t>rhalifa@prodware.co.il</t>
+  </si>
+  <si>
+    <t>iftah.saar@herolo.co.il</t>
+  </si>
+  <si>
+    <t>tamir@ellers.co.il</t>
+  </si>
+  <si>
+    <t>.stoller@ricult.com</t>
+  </si>
+  <si>
+    <t>service@onlineshmonline.com</t>
+  </si>
+  <si>
+    <t>sales.zivbracha@gmail.com</t>
+  </si>
+  <si>
+    <t>info@join.co.il</t>
+  </si>
+  <si>
+    <t>maayans@tefen.co.il</t>
+  </si>
+  <si>
+    <t>jerrycalebjasper@gmail.com</t>
+  </si>
+  <si>
+    <t>meidan.meshulam@skyboxsecurity.com</t>
+  </si>
+  <si>
+    <t>gal_b@ibi.co.il</t>
+  </si>
+  <si>
+    <t>oranit@liacom.co.il</t>
+  </si>
+  <si>
+    <t>Zehavit.saban@optimalplus.com</t>
+  </si>
+  <si>
+    <t>cheliJo173@gmail.com</t>
+  </si>
+  <si>
+    <t>Michal.g@top-soft.co.il</t>
+  </si>
+  <si>
+    <t>davidmaggen@gmail.com</t>
+  </si>
+  <si>
+    <t>vseeveet@gmail.com</t>
+  </si>
+  <si>
+    <t>tal@medulla.co.il</t>
+  </si>
+  <si>
+    <t>Tamir@ellers.co.il</t>
+  </si>
+  <si>
+    <t>liorworks4you@gmail.com</t>
+  </si>
+  <si>
+    <t>arava@ardom.co.il</t>
+  </si>
+  <si>
+    <t>jorge.iacobsohn@gmail.com</t>
+  </si>
+  <si>
+    <t>keren@go-up.co.il</t>
+  </si>
+  <si>
+    <t>lilahb@tcmcareer.com</t>
+  </si>
+  <si>
+    <t>ayelet.avrahami@horizontech.co.il</t>
+  </si>
+  <si>
+    <t>themarkrus@gmail.com</t>
+  </si>
+  <si>
+    <t>Nitzan@razel.co.il</t>
+  </si>
+  <si>
+    <t>hadas.dimerman@regus.com</t>
+  </si>
+  <si>
+    <t>hofitmag@gmail.com</t>
+  </si>
+  <si>
+    <t>natalis@consist.co.il</t>
+  </si>
+  <si>
+    <t>Taxrefund10@gmail.com</t>
+  </si>
+  <si>
+    <t>adi.poli1501@gmail.com</t>
+  </si>
+  <si>
+    <t>yael1994cohen@gmail.com</t>
+  </si>
+  <si>
+    <t>Yevgeny.Markhovski@gmail.com</t>
+  </si>
+  <si>
+    <t>talia.s@wojo.co.il</t>
+  </si>
+  <si>
+    <t>Michal@startica.co.il</t>
+  </si>
+  <si>
+    <t>tali.aiz@gmail.com</t>
+  </si>
+  <si>
+    <t>info@spinomenal.com</t>
+  </si>
+  <si>
+    <t>soofa.shaaya@elad-health.com</t>
+  </si>
+  <si>
+    <t>box4yourmail@gmail.com</t>
+  </si>
+  <si>
+    <t>hadas.shor@nogamy.com</t>
+  </si>
+  <si>
+    <t>linoy@comc.co.il</t>
+  </si>
+  <si>
+    <t>Shirst@soluto.com</t>
+  </si>
+  <si>
+    <t>support@loco-tech.com</t>
+  </si>
+  <si>
+    <t>CV@barak-capital.co.il</t>
+  </si>
+  <si>
+    <t>roi363@gmail.com</t>
+  </si>
+  <si>
+    <t>hilapoch1988@gmail.com</t>
+  </si>
+  <si>
+    <t>zeev@greenberg.co.il</t>
+  </si>
+  <si>
+    <t>riki@wintech.co.il</t>
+  </si>
+  <si>
+    <t>adidushpro@gmail.com</t>
+  </si>
+  <si>
+    <t>adi@sunrise.co.il</t>
+  </si>
+  <si>
+    <t>mshasama@gmail.com</t>
+  </si>
+  <si>
+    <t>drushim@tiecom.co.il</t>
+  </si>
+  <si>
+    <t>michael.dvinov@gmail.com</t>
+  </si>
+  <si>
+    <t>marinorb@pelephone.co.il</t>
+  </si>
+  <si>
+    <t>Daniel.Raveh@Amdocs.com</t>
+  </si>
+  <si>
+    <t>Gal@kiberneti.com</t>
+  </si>
+  <si>
+    <t>efrath@medisim.co.il</t>
+  </si>
+  <si>
+    <t>cbudman@prodware.co.il</t>
+  </si>
+  <si>
+    <t>michal.tactics@gmail.com</t>
+  </si>
+  <si>
+    <t>nofaryeh@clalit.org.il</t>
+  </si>
+  <si>
+    <t>ore@playstudios-il.com</t>
+  </si>
+  <si>
+    <t>careers@convizit.com</t>
+  </si>
+  <si>
+    <t>bars@manpower.co.il</t>
+  </si>
+  <si>
+    <t>lenas</t>
+  </si>
+  <si>
+    <t>shohamshahar</t>
+  </si>
+  <si>
+    <t>cieloschoolil</t>
+  </si>
+  <si>
+    <t>shirley shaked</t>
+  </si>
+  <si>
+    <t>rhalifa</t>
+  </si>
+  <si>
+    <t>iftah saar</t>
+  </si>
+  <si>
+    <t>tamir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stoller</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>sales zivbracha</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>maayans</t>
+  </si>
+  <si>
+    <t>jerrycalebjasper</t>
+  </si>
+  <si>
+    <t>meidan meshulam</t>
+  </si>
+  <si>
+    <t>gal_b</t>
+  </si>
+  <si>
+    <t>oranit</t>
+  </si>
+  <si>
+    <t>Zehavit saban</t>
+  </si>
+  <si>
+    <t>cheliJo173</t>
+  </si>
+  <si>
+    <t>Michal g</t>
+  </si>
+  <si>
+    <t>davidmaggen</t>
+  </si>
+  <si>
+    <t>vseeveet</t>
+  </si>
+  <si>
+    <t>tal</t>
+  </si>
+  <si>
+    <t>Tamir</t>
+  </si>
+  <si>
+    <t>liorworks4you</t>
+  </si>
+  <si>
+    <t>arava</t>
+  </si>
+  <si>
+    <t>jorge iacobsohn</t>
+  </si>
+  <si>
+    <t>keren</t>
+  </si>
+  <si>
+    <t>lilahb</t>
+  </si>
+  <si>
+    <t>ayelet avrahami</t>
+  </si>
+  <si>
+    <t>themarkrus</t>
+  </si>
+  <si>
+    <t>Nitzan</t>
+  </si>
+  <si>
+    <t>hadas dimerman</t>
+  </si>
+  <si>
+    <t>hofitmag</t>
+  </si>
+  <si>
+    <t>natalis</t>
+  </si>
+  <si>
+    <t>Taxrefund10</t>
+  </si>
+  <si>
+    <t>adi poli1501</t>
+  </si>
+  <si>
+    <t>yael1994cohen</t>
+  </si>
+  <si>
+    <t>Yevgeny Markhovski</t>
+  </si>
+  <si>
+    <t>talia s</t>
+  </si>
+  <si>
+    <t>Michal</t>
+  </si>
+  <si>
+    <t>tali aiz</t>
+  </si>
+  <si>
+    <t>soofa shaaya</t>
+  </si>
+  <si>
+    <t>box4yourmail</t>
+  </si>
+  <si>
+    <t>hadas shor</t>
+  </si>
+  <si>
+    <t>linoy</t>
+  </si>
+  <si>
+    <t>Shirst</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>roi363</t>
+  </si>
+  <si>
+    <t>hilapoch1988</t>
+  </si>
+  <si>
+    <t>zeev</t>
+  </si>
+  <si>
+    <t>riki</t>
+  </si>
+  <si>
+    <t>adidushpro</t>
+  </si>
+  <si>
+    <t>adi</t>
+  </si>
+  <si>
+    <t>mshasama</t>
+  </si>
+  <si>
+    <t>drushim</t>
+  </si>
+  <si>
+    <t>michael dvinov</t>
+  </si>
+  <si>
+    <t>marinorb</t>
+  </si>
+  <si>
+    <t>Daniel Raveh</t>
+  </si>
+  <si>
+    <t>Gal</t>
+  </si>
+  <si>
+    <t>efrath</t>
+  </si>
+  <si>
+    <t>cbudman</t>
+  </si>
+  <si>
+    <t>michal tactics</t>
+  </si>
+  <si>
+    <t>nofaryeh</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>careers</t>
+  </si>
+  <si>
+    <t>bars</t>
   </si>
 </sst>
 </file>
@@ -704,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,10 +954,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -749,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -760,13 +979,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -777,10 +996,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -788,13 +1007,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -802,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -816,13 +1035,13 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -830,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -844,13 +1063,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -858,13 +1077,13 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -872,13 +1091,13 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -886,13 +1105,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -900,13 +1119,13 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -914,13 +1133,13 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -928,13 +1147,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -942,13 +1161,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -956,13 +1175,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,13 +1189,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,13 +1203,13 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,13 +1217,13 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,13 +1231,13 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,13 +1245,13 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1040,13 +1259,13 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1054,13 +1273,13 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1068,13 +1287,13 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1082,13 +1301,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1096,13 +1315,13 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1110,13 +1329,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1124,13 +1343,13 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1138,13 +1357,13 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1152,13 +1371,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1166,13 +1385,13 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1180,13 +1399,13 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1194,13 +1413,13 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1208,13 +1427,13 @@
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1222,13 +1441,13 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1236,13 +1455,13 @@
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1250,13 +1469,13 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1264,13 +1483,13 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1278,13 +1497,13 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1292,13 +1511,391 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
         <v>110</v>
+      </c>
+      <c r="F63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
